--- a/code/data_process/1.Multiple_interface_joint_calls/data/history/combined_file_splited_new_306.xlsx
+++ b/code/data_process/1.Multiple_interface_joint_calls/data/history/combined_file_splited_new_306.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E307"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,16 @@
           <t>gpt4o_label</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>key_text</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>non_key_text</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +496,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>准备还有什么呢？我说一下啊，</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,6 +533,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>咱们这个，课内的这个线两盒啊，彻的建场，之所以学，我知道不好嘞。但是，你要想别背，我们学线条文</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -540,6 +570,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>他为什么要学它呢？因为这里面呢有很多，现在我们一些考就是不是因为他要考试，明白了吗？里边很多的写作手法可以这样做，有一篇记叙文儿，一篇可能有点少，一个三五边就能解决好了，所有的内所有的槽点都在这。</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -567,6 +607,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>这层窗户纸很难很难，有些同学可可会简单，我怎么能不知道呀？对，那么简单，我给你举个例子，你们现在战战斗机战斗机一代接一代的就就出现是吧？对你知道这个飞机最初出现的时候，飞机是老早的事情，199几年的事情，一九是</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,6 +644,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>那那个在哪干什么，两个都去侦察机啊。所以，当年那个叫谢国和同盟，同盟国，亚马逊，就他他黑这他黑这两都就互相侦，没有人知道，飞机也可以。这个是这个，</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -621,6 +681,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>我打不就行了吗？对不起，那不会，一直到什么时候呢？有一天，一个英国的飞行员，和一个德国的飞队员在上相遇了，</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -648,6 +718,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>啊，这样，算是你的事儿了，是吧？所所以你要琢磨怎怎么样做做。所以你当当个坏人，你就当个聪明的坏人，所以人家说了嘛，人一多过了，看到了吗？其实，外面的这个流氓，最害怕流氓是什么？</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -675,6 +755,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>我跟你讲，清华北大的学生，如果他要是当当坏蛋，那要命，那就很可怕知道吗？我跟你说啊，公主</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -702,6 +792,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>咱们今天一段一段的吧</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>咱不就说那么多，看一下这这个文章，，我希望你，能把它当做一个思考的而不是一片工业兼设，听懂了吗？啊？嗨，绒羊服，媳妇啊，</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -729,6 +829,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>两袋第二个，</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -756,6 +866,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>我建议把窗关了，后边没上，让也有个马，你也不干了，我估计你干了啊，</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -783,6 +903,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>油妆就能。我跟</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -810,6 +940,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>你你你你翻译出来眼睛这也不大嘛，他那肉这么多袋儿，</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -837,6 +977,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>谢老哥，你这天眼不？</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -864,6 +1014,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>你说阳</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>你不打天阳，</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -891,6 +1051,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>不用找啊，找什么书里找两头，你也在公司啊带呀，你看一下，关键居然不让，</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -918,6 +1088,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>所以不要去多，说多了，别碰大想着你。</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -945,6 +1125,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>人要偿怀敬畏之心。我说这话，你好好记住，人要偿还敬畏之心，人要偿还慈悲，你带入社会吧。否则，就像你这样搞子，胡说八道，你翻译越来越多，</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -972,6 +1162,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>不要去泄露神啊。</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -999,6 +1199,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>那么社会上人家有人这个人之间有没有有天眼的呢？当然有呀，我们是肉眼没有，所以，我们叫肉眼翻开。这可是大部分人都是肉眼</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1026,6 +1236,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>一眨眼，能够变，</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1053,6 +1273,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>形而上，形而上，违法，形而下，违法。那么人继续问，问题无题，我有没有佛眼呀？所以人最高的境界，是，至少为，释迦牟尼佛</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1080,6 +1310,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>人家有肉眼，人家有天眼，人家有慧眼，法眼，你知道释迦牟尼？你知道释迦牟佛的大帝是谁吗？徐主席，你知道徐福席是谁吗？就是西游记当中那个主题祖师，还有古的，孙悟空的师傅，</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1107,6 +1347,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>补贴主食他便是须提，你知道他还有什么吗？他只有第三者，他才只有退哎，你看，有慧演，电影有很了不得，你知道那悟空为什么叫悟空吗？</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1134,6 +1384,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>因为这个须菩提，在佛的10大定当中，</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1161,6 +1421,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>要是说大话的也能我那那那好了，那你第一个就是那地狱丢空了，</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1188,6 +1458,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>我说的，因为你以后肯定是要去地狱的，这就不是，</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1215,6 +1495,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>听我说，我倒希望咱们同学里面当中某一个同学</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>我们大部分都要去啊，你去地狱是好事儿，去黄泉，你知道吗？大部分人员去去轮回的，知道，如果按照我那几没人知道没人到底知道什么做，是不是是否还价啊？所以，，</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1242,6 +1532,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>己所以现在也就是说慧也是因，挑起来了这个东西，那慧呀慧</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1269,6 +1569,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>我就走了，那都不是，所以你天眼中看的什么呢？你如果真有天眼的话，你就你就不会这样，因为你能看到你的前，你犯了什么样的目钱是？知道吗？才会受今天的委屈。</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1296,6 +1606,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>你甚至于看到可以看到别人和所以级组织会跟跟你走吧，因为他一眼就看到了，打能开多远，那要看你的防如，一个呀全的，</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1323,6 +1643,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>把匙拿上来</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>而且你会发现在这里面着重写了两件事儿，第一件事，这描写了什么呀？国留学生们，合同述的清国留学生，，</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1350,6 +1680,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>啊，你念，大大个声音</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>为什么要你要怎么样了解出国留学生同学，发变了，</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1377,6 +1717,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>我叫你，我叫你大中介，你就在这嗨，有人吗？原来学生的，是子，碰你一点粗息，附近的衣服看</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1404,6 +1754,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>你既没有点自身，也没有才华，</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1431,6 +1791,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>那么关于他嘉宾，含着瓶子出下面来，油光可见，宛如小姑娘的发髻，一般还要将脖子扭几扭来标准。我问你鲁迅有没有的？没有有</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1458,6 +1828,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>教你们是这么工作，我知道你们去帮爸爸出差去，</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1485,6 +1865,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>那个果子那个包饺怎么？</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1512,6 +1902,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>老师教你，我跟你分，你要是哪怕老师再说那种封建迷信，我跟你说你是努力就好好他考你你教</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1539,6 +1939,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>人家当年的郭脚，就像现在女女孩子男同学减肥一样，懂了吗？懂了那是爱美</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1566,6 +1976,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>都是一样的，只是在时代不同了，他到最后都不适不适合他，他当然就成了肉体了，明白了没有？开工的人，那个老老老老老奶奶为什么要要过小羊？</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1593,6 +2013,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>如果是肉习的话，那么当年为什么流行了上千年呀？对吧？因为小脚女人当年她就相当于咱们现在大胖子不是搞对象不容易吗？是不是当年大脚女人也不容易？要找报告机呀，你得先一小脚才行啊，</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1620,6 +2050,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>因为你太相信人家，外国人的力，你觉得那样满意吗？简直是。我说的那个脾气和你说的努力气不一样，</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1647,6 +2087,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>所以我就觉得乳的作品压根根根不应该什么充用用，啥也不懂，其实本人你应该放学的跟鲁迅一样，是吧？代表什么？</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1674,6 +2124,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>那当然是家家清清国的学生人，不是清朝的</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1701,6 +2161,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>你说话</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>，你变红点也</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1728,6 +2198,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>这个辫子有个什么样的啊，最关键在里面，身体防护舒服哎，辫子呢？</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1755,6 +2235,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>是什么？在你爸所以你从你从开始流辫的开始，小孩刚刚很小的时候</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1782,6 +2272,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>可以，当然有些朝代也不简，那么清朝一开始就变了，很小呀，就留那么一小，</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1809,6 +2309,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>国家让他们去学什么呀？</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>好，谢谢刘老师。你这个被派到，日本去学的这些留学生们，学日语，学日语还是学日本说，的新技术，新科</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1836,6 +2346,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>手序说话嗯，你去认这些人有用吗？没有用，晚上的清国里面，那就拿着钱群啊，国家拿钱工费。所以你看，现在还有没有用啊？</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1863,6 +2383,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>知道什么叫民本地方啊？对，我们的我们的流通是流通的，名字收记，以白银作为本位，这个银本位是很因为你你的货币就是大，真金白银，所以你给人日本重的都是什么呀？真金真金白银是不是指啊？</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1890,6 +2420,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>可以，不要到欧洲去，人不要，但拿的真一杯，谁都有谁都有，会立马600块钱，所以其实在那个时候啊，那就是说其实日本人日本政府在这一点上，是鼓励日本的女子去找秋人。</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1917,6 +2457,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>他们很缺钱，就说他们他缺钱，他不一定吗？他印的钱好不好？用不好用枯燥了，你家用不了东西，对不对啊？所以他需要赢。这就是为什么你以为光是这些同亲结队出国留学生啊，他肯定还跟着很多的日本的女子，留学生肯定在学校的呀，很多同学都合在一块儿，</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1944,6 +2494,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>上午还可以做的，下午能不能做啊，傍晚的时候得跳舞去了。所以他觉得，和他们一起，</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1971,6 +2531,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>我的下来，把我起来，下车过三公司车，我那大不是跟你说，叫你们写不完，每天上办公室去吗？忘了吧，从从从从从货的，从明天就去啊，我就从不要从那个写不完那个20遍，明天怎么了？那20遍，那2210遍遍就完，</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1998,6 +2568,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>好，你五辩完了吗？这么打扰啊，明天给我五遍啊，跳跳跳跳跳脚的肚子，等到20天，你再你再再再那什么来？</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2025,6 +2605,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>你能不能想了想？你能不能你不读了文章了吗？</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>是你清国留学生的表现与你有什么关系吗？现在告诉我有没有觉得他写那一段是不是？然觉的呀，是不是？也不作呀？想了想呢，你能不能你不读了文章了吗？你能不能想了想？</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2052,6 +2642,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>因为他在国家体育，</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2079,6 +2679,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>就是，这三个，你跟刘全昌有什么关系？就是红色这一方面就啊，然后，经常有点，嗯的手，一定要清楚，那是没</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2106,6 +2716,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>嗯，对留学生表现那他旅行生表现很失望，那他有还有什么东西啊？你改革课文有没有？有与我有关系啊，</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2133,6 +2753,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>你什么关系？</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2160,6 +2790,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>人家人家还怎么着赔？你有什么事吗？那你现在现在还有人写写家，在加拿大留学的，还说加拿大留学生如何如何不好，人人还说了吗？没有啊没有没有呀，说是没有。但是在当时，鲁去日本，他想要最初想要</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2187,6 +2827,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>通过学医来救中国，应这些，为什么呀？为当时觉得呢，中国人被称为东亚病夫，一个很重要原因，中国没有西医，身体，所以打不过日本，攻打不过西洋人对是我们身体</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2214,6 +2864,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>那么次要的原因是什么呀？啊？</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>如果直接的原因是抽大烟珠的，抽大烟抽的。没有医药，没法医治他，在前面学习。</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2241,6 +2901,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>后文还有什么人也不收进去啊，就那些喝酒，</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2268,6 +2938,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>要不然呢用不用提前来啊，要不然能不能碰他，要这样的话，能要不这样能不能碰碰野先生？所以我也我也问问他，去台去找藤野先生，能明白吗？这很简单，我跟你说话不就很简单吗？</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2295,6 +2975,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>梁晓东，下两段</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>答案你至少要知道，但是会有后文再去先谈看处智能电脑、工业天使，好，我们继续发下，，</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2322,6 +3012,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>在这两段里，他只是提到了两个定名，一个叫日，</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2349,6 +3049,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>一个是水库，啊，我们知道水库，我给你讲那个能不能别笑？你笑也是哭，</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2376,6 +3086,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>我跟你说，你这种表态就是，知道吧？那吃着睡去了，吃不是</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2403,6 +3123,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>我跟你个说，</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2430,6 +3160,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>离住还挺近，</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2457,6 +3197,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>你等着你，你等会啥不愿意上来？</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>那我都比你，</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2484,6 +3234,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>他现在告诉我</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>，日暮，他为什么要？特别记得这个日暮里这个知道，</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2511,6 +3271,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>为什么他到艺术艺特别记得日暮里啊？</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2538,6 +3308,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>刚才给你说的，</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2565,6 +3345,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>为什么在他这里，</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2592,6 +3382,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>还就是日本人，啊，日本这两年以在日本叫大王，那我叫李海道，我，</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2619,6 +3419,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>你再好好好好好好的想想</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>然后很肉肉新鲜菜，，</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2646,6 +3456,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>这给人种什么感觉啊？英</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>这个日暮里，假如不是个弟，日暮里就是，，</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2673,6 +3493,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>这就，日暮是什么？</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>这日落呀，东他是高兴啊，</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2700,6 +3530,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>日暮是不是是一个，至少没有升级，夕阳西下</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2727,6 +3567,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>这样理解也有点道理，他想不想家啊？哎，曾经在这个时候看到日落里一下，想到当然那那时候日是不是日落，他不知道，但是至少看到的名字一下，想到了</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2754,6 +3604,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>还可以怎么理解呀？</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>哎，这可以理解，可以这样说，不可以来理解，啊，</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2781,6 +3641,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>哎，想到像不相当于一个马上就要沉入山中的人，这个太阳笑，所以岌岌可危啊，</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2808,6 +3678,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>暮气全沉吗？不是有一句话，叫暮气也叫基本，哦，对吧？为什么叫目击？哎呀，我了，张老师，拦都拦不住，是不是啊？谁能拦住下拦住不让你下山，你能拦住吗？不能，谁能拦住毛泽东也拦不住，</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2835,6 +3715,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>母亲作业了，生，拦住了不让它落的时候，整个雨就过来。你觉得我说的你以为我说的比上一你你你看一个运行的这个，啊，你把其中的任何一个东西叠住表肯定就不会有出的，啊，很快就通知了运行人，</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2862,6 +3752,12 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>你有个查验</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2889,6 +3785,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>一轮落日一般，马上退到现场，猜不猜，中，已经有没有朝气了？没有到了王国的？当然那时候还还不是要起义之类的，但是他总有这一种，</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2916,6 +3822,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>你就从现在开始吧</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>，人家这个谁，小米的那个总裁雷军和华，备10了，</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2943,6 +3859,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>啊，他这个内容啊，再说啊，如果你不是生在误会，如果你不是生在父那么，唯一改变你命运运气。就此，</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2970,6 +3896,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>中途，为什么是忠诚于勤奋呀？就忠诚于勤，可以忠诚于别人，也是忠诚于，我忠诚于我自己的梦想，我并且为了我的梦想不断而努力，是不是可以的改变自己命运？</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2997,6 +3933,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>当然你要勤奋的自然要勤奋的学习，勤奋的努力啊，是不是？但千千万不，我跟你说，现在吧，这就来了问题啊，我们没法没法去尝试，你真应该，</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3024,6 +3970,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>社会组织要有底层的，是吧？没有底层上诉嘛，对不对？</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3051,6 +4007,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>朗朗的读书声感受到了同学们热爱学习的氛围啊</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>好，那么上课前我们平板可能没那么快用到的，你们可以先把语文书放在，前面一点哈，先把语文书放前一点，把平板放在后面。好，同学们，，</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3078,6 +4044,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>准备好上课了吗？</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3105,6 +4081,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>向大家，认识啊向大家介绍一下</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>同学们好，请坐，同学们，课前呀已经跟同学们互相介绍了一下，都认识了彼此。今天我，带来一位七岁的小朋友，，</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3132,6 +4118,12 @@
           <t>学生齐写</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>请同学们伸手跟老师一起写</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3159,6 +4151,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>好，我们一起来读一读课题，预备起</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3186,6 +4188,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>请同学们跟着老师一起读</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>司司马光是复姓本节课，我们就来学习与司马光有关的课文，思是我们本节课要认读的生字，，啊，这个录音损坏了，跟着老师读吧，</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3213,6 +4225,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>整体认读音节，</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3240,6 +4262,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>小组间互相来学习解决生字的障碍</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>边没水中，众天，花时石击，水迸，儿得活，好圈出生字之后，开始，一定。</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3267,6 +4299,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>小组间合作学习</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>哎，同学们请看黑板，黑板上这些认读的生字，我们要互相学习一下来一起。</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3294,6 +4336,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>可以两个两个一起的</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>哎，，对互相赌，互相赌，互相学习，</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3321,6 +4373,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>请看屏幕一起来读一读</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>非常好。通过刚才的学习，现在考察一下你们是否能够读通课文，</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3348,6 +4410,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>请跟老师读</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>水，儿，嗯，声音非常的响亮。但是我刚才巡查的时候，有个别的字音，还要再读一读。这个停读后，鼻音停tping停，</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3375,6 +4447,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>再读一次停</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3402,6 +4484,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>现在再来读一读，预备起</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>很好啊，声音都很响亮，有没有同学再来向小组合作，读一下这个生字啊，这组你来。刚才我听到有些同学读的不太准确，，</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3429,6 +4521,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>鼻音对了，哎，出来了，有个声音出来了，这个是后鼻音，</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3456,6 +4558,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>哎，好小花朵170。</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3483,6 +4595,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>读整齐再来一次</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>读读整齐读好听，预备起，哎，，汪预备起汪，</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3510,6 +4632,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>好，现在借助拼音，看你们能不能把它读的更加好，一起来读课文</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>读的越来越好了。，170，群儿戏云，</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3537,6 +4669,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>如跌没水中，众跌，</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3564,6 +4706,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>跟老师读吧，默预备起，</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>11。好，这篇文章中还有一个多音字，需要我们再来学习一下的就是，墨字紧跟录音读，啊，声音也是损坏了，</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3591,6 +4743,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>随机抽一位同学</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>这个问字观察图片，我们就可以知道它是一种什么东西啊，，好吧，啊，选到一号。一号同学，你原来学号是一号的是谁？还没开车？好，再来一次吧。</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3618,6 +4780,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>这位同学请你来，你来说一下，根据图片就可以介绍</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>这位同学请你来，我一，你来说一下，根据图片就可以介绍刚对它就像刚，对吧？跟我们现在所说的刚，</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3645,6 +4817,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>最后这位男生，你说，对，就是你</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>同学们能够根据图片说一下它的区别吗？问他的，好，，</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3672,6 +4854,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>口口小，这个缸呢，它本来，</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3699,6 +4891,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>现在请同学们，视频里面的朗读。青山干读读出视频中的停顿</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>大的缸是淘气，对吧？啊，解词，解决了生字的障碍，，</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3726,6 +4928,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>请同学们借助老师画出的停顿，再来读古文</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>，预备起，七，细雨，一儿登，竹，水中，众，继续，</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3753,6 +4965,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>冻果汁，水稻。而，</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3780,6 +5002,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>现在请跟老师再读一读好吗？</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>那好，我们要读的慢一些，在句中的停顿要稍微停，如果有逗号地方要做停顿句号的地方，停顿的时间要再长一点，戏于庭，</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3807,6 +5039,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>跟着老师读，预备起</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>，戏于情，一而，昨天，从，整，继续，我，</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3834,6 +5076,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>请你站起来</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>哎，有请这位，，好，</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3861,6 +5113,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>请这位女生，你来</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>但是有几个音我们在这里还要再读一读啊，望字也有后鼻奶，但是明显性还不太够。这个池子的翘舌音，我们再来加强看一下哪位小老师能够带读一下这个亭子，好，，就是你第五组的同学，</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3888,6 +5150,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>全班同学跟读</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3915,6 +5187,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>好，现在小组开火车，读好这个亭子</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>，读好它的后鼻音。第一组开始一，齐读停起，停，停，你来停，</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3942,6 +5224,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>哎，就是你你来读</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>迟。哎有进步非常好，我再抽取一位同学来读一下哈。好，请这位同学读</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3969,6 +5261,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>现在全班再来读一读，预备起</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>，第一儿，竹叶，中，昼，志，我国，</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3996,6 +5298,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>预备起，群起</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>抽到男生就男生先来好不好？这位同学是，男孩子先来是吧？，</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4023,6 +5335,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>女声来预备起</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>读的特别好，，群儿，戏于庭，一尔登瓮，足尖没水中，众皆一去，光，击瓮破之，</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4050,6 +5372,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>声音响亮音又转节奏又读的非常好，掌声送给你们自己。</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4077,6 +5409,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>儿戏，一儿登瓮，足点。北洲，昼夜，挖石石，瓮破之，水迸，儿，</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4104,6 +5446,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>找一个小组来试一下，这组你来安</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>火声音可以再慢一点，好，，火开始，</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4131,6 +5483,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>哪位同学挑战一下，不要拼音，能够把它读好</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>嗯，很好，那，神还怎么样？没事，你看多</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4158,6 +5520,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>再来试一次</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>。对呀，</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4185,6 +5557,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>请你来读一读开始</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>老师，注意倾听，，</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4212,6 +5594,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>嗯，水泵，水爆竹，</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4239,6 +5631,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>刚这位同学谁能够点评一下？好，你说</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>刚这位同学谁能够点评一下？刚才朗诵，好，你说，大爸的事儿，可以从他的哎朗读的姿态声音方读的很响，他，</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4266,6 +5668,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>同学要比他读的更好哦，请你一站起来。</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>好，来，戏于庭。瓮，重，重，</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4293,6 +5705,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>那看来还是要跟老师再读一读，戏于亭，一儿</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>非常好，哎，这位同学很勇敢，我们也要掌声送给他。好，请坐，，</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4320,6 +5742,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>请你来</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>好，哪位同学最勇敢？好？这位同学，你最先举手，，群儿戏于庭，一儿，争，足铁，足，众皆弃去，光，持石击</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4347,6 +5779,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>你说</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>好，同学们，有没有发现有哪些地方？我们要注意的，，</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4374,6 +5816,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>你可以示范一下吗？持石</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>停顿停的不好，例如哪一句，</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4401,6 +5853,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>好，第一组开我车，从这里开始</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>，我，我我，我，哎，声音有点小，哎，这两位同学声音很响亮，好，请你来，</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4428,6 +5890,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>鼻腔要从那个气要从鼻腔喷出来，旺旺，</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4455,6 +5927,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>哎，有进步，你来</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4482,6 +5964,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>旺鼻腔要那个气要从鼻腔喷出来。旺，</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4509,6 +6001,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>坐姿，这里来开始，忘，忘，</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4536,6 +6038,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>我们还是再读一下，叫做停顿</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>好在这一句。那么刚才，啊，我们读停顿的时候，有些同学不知道有没有关注到我们画停顿可以根据人物还有事情的发展来画出节奏。刚才老师画了光是在人物的后面。对吧？光，</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4563,6 +6075,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>气球给大家点亮一下。好，可以结合实习任务单。没事再有再有，这是，你害怕，</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4590,6 +6112,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>他们可以共享，可以，我看，搜一下，大声，</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4617,6 +6149,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>你今天看，几点去？</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4644,6 +6186,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>03/09，这个好看的。</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4671,6 +6223,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>还有一个小爱，第题</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4698,6 +6260,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>请你来说一下这个，群是什么意思</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>墨水中这句话，谁能够，说一下它是什么意思？知道什么意思吧？好，你知道那这有几个字词想要考察一下的，？</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4725,6 +6297,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>在这里想跟一起分享一下</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>嗯，第二可能是一个小孩是吧？好，请坐。刚才我还拍到了一位非常爱学习的同学，他的预习单做的非常好。，</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4752,6 +6334,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>我想请这位同学跟大家说一下</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>好群儿戏于庭，那么接下来还有一个登这三个字，，就是你对，可你可以拿着你的预习单跟同学说一下，张，</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4779,6 +6371,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>我找一位同学上来，把这个答案划到右边的，选项上面去</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>现在考察一下同学们的巩固的情况，刚刚已经分享完这个字义的意思。。</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4806,6 +6408,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>好，请你上来</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>。好，请你上来，</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4833,6 +6445,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>把它划到右边的盘上去</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>。哎，对，在这就可以了。对，在这儿好的，</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4860,6 +6482,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>检验一下他的，回答情况。哎，全部正确，特别棒。好，给你一个。你认真学习，记得思考，</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4887,6 +6519,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>你说</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>还小后面还有，请来请大家一起来说一下，竹叠墨水中之后，会有什么样的情况发生？，</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4914,6 +6556,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>掉到水里面会怎么样</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4941,6 +6593,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>请你说，破这个缸哎，砸破这缸</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>对有可能会淹死会发生危险，对吧？那其他的孩子是怎么做的呢？，那是谁砸缸？芝麻官芝麻官会砸缸，他会砸缸。</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4968,6 +6630,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>好，你说他，哎，接是什么意思？</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>其他群儿他们又有什么表现？好，你说他，哎，有的哭了，有的跑了，对吧？他们都弃去了，那这里有两个字，我要考察一下同学们，哎，接是什么意思？哎，你说，</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4995,6 +6667,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>谁来说一下当时的场面？你说</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>啊全，那个刚才同学讲到其他孩子都离开了，那么离开了，哎，会是怎样的场面？，很安静，哎，离开了会怎么样？会怎么样？有的会干嘛？你说，</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5022,6 +6704,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>有的会干嘛？</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5049,6 +6741,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>你说</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>好，那你找位同学帮你帮好不好？有的可能会跑去找，找大人小大人有的可能会，哭了哭了，对了，非常好，有的非常的惊慌而那这个时候的司马光他是怎么样的呢？，</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5076,6 +6778,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>主任，你说，助人为乐</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>对，直接砸杠那，他你从中你可以感受到司马光是怎样的孩子，，那，他砸杠的时候，他为什么不向别孩子跑啊，他要留下来呀，你说，</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5103,6 +6815,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>今天，看哪位获得冠军</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>快快。？</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5130,6 +6852,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>请看古文版的司马光的故事</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>好，我们呢刚才花了很多的语言去表达现代版的书法。司马光的故事。，他们的文字怎么样？</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5157,6 +6889,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>你说</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>短对吧？所以古文和今文它们的区别是什么呀？，</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5184,6 +6926,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>请你说，机智聪明，机智，你说，明聪明，还想到别的吧，你说</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>比较少，对经文比较多，内容比较具体和简约是吧？好，通过刚才的学习，我们知道司马光有着怎样的品质啊？好，。</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5211,6 +6963,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>什么是？好，下课？</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5238,6 +7000,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>好，你来说</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>同学们好，同学们，我们今天要学习的是15课题目是，那同学们，你们以前见过这种动物吗？见，见见过同学，你在哪里？见过？，</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5265,6 +7037,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>现在同学们，你们看一看自己的创小学上面去看一看其他同学的收集到的成果</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>主人公，我们课前老师给大家布置了一个课前的探索作业。，然后选择一位你觉得他找的最好的同学，现在开始你们看到自己平凡的创年小学。</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5292,6 +7074,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>你给他点一点赞</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>如果你觉得他找的资料特别好，那。</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5319,6 +7111,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>今天谁来分享一下？</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>找到的同学请举手。好，</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5346,6 +7148,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>你们开始默读课文</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>他会和我们今天，的主角，这一只可爱的灰雀，这一只可爱的灰雀发生什么故事呢？下面啊老师想请同学们，，并且思考一下我们这一篇课文一个什么事情，现在开始，</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5373,6 +7185,12 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>默读课文，并且思考一下我们这篇课文讲了一件什么事情？</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5400,6 +7218,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>你读完之后，它是讲了什么事情呀？</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>那老师选一位同学，谁来跟我们讲一讲这篇课文，嗯，好，这位男生你来，一直在中国。</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5427,6 +7255,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>你在我们这篇课文里面有哪些主角啊？有，还有，我们可爱的灰雀，还有一位主角是，男孩请坐</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>我们这位同学，他们把我们整一篇课文讲的非常详细。那么在这里，老师要问一下，，</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5454,6 +7292,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>红，呼称呼呀，或者我的天，巴，巴西开，果然果然变，</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5481,6 +7329,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>第二个应该读第二声胸脯，全班一个词读两遍预备起</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>看来同学们都不给老师一个找其他小组来读的机会啊，大家全班都一起读了。那老师要问一下同学们这个词怎么读？对这个词？，</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5508,6 +7366,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>公园，你爱，慈，良知生活在，我的，意识生活，</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5535,6 +7403,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>白露，喜爱变，</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5562,6 +7440,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>嗯，后面那位男生举手特别快，你来说，对，就是你</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>都要比较，白里，看见了。嗯，那课文我们读完了，你有什么收获？，</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5589,6 +7477,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>好，你来</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>嗯，你通过阅读第一自然段认识到了我们这三只可爱的灰雀，那其他同学还有其他收获吗？，</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5616,6 +7514,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>嗯，还经常如果不喜欢的话，会不会给他们带呀，还有其他的吗？</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5643,6 +7551,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>对呀，每一次走到这里都要停下来，停下来的目的是为了，</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5670,6 +7588,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>已经有一位同学，特别可爱，他已经完成了答题，已经答完了，不要忘记点提交键。</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5697,6 +7625,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>你有没有接收到你全对的？同学们，基本我们都能认出我们这三只可爱的灰雀。</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5724,6 +7662,16 @@
           <t>集体未知</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>让我们一起来听一听</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>所以呀我们才会，带来了自己的歌声，，你确定，</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5751,6 +7699,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>都认出来好吗？好，</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5778,6 +7736,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>同学们，先找出来列宁说的话</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>用我们的，红笔画一画，列宁说的话。红，用蓝笔画一画小男孩说的话，嗯，那我们就用黑笔来画一画，小男孩说的话好吗？，</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5805,6 +7773,16 @@
           <t>多人展示、学生齐读</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>那你们两位谁来读列宁？你读列宁，那你读小男孩，</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>那你们两位男生，你的同桌是是吗？嗯，好，你们两位谁来读列宁？你读列宁，那你读小男孩，那么其他没有划线的句子，我们全班同学一起来读一读好吗？</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5832,6 +7810,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>同学们看到正时预备起,我们只用读没有划线的句子来</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>好，同学们看到正时预备起，90000，同学们，这个您是谁呀？是他？然后我们只用读没有划线的句子来，</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5859,6 +7847,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>能，还说，没看见，耶，</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5886,6 +7884,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>谁来点评一下，啊，你来点评下</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>那么在这两位同学读的时候，大家觉得他们两个读的怎么样啊，，没？你来点评一下，你觉得他们两个读的怎么样，没关系，讲一讲，</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5913,6 +7921,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>是呀，那么大家为什么语气那么坚定呀？因，为呢？因为，22，啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5940,6 +7958,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>你继续讲</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>那男孩为什么知道灰雀没有死呢？，为什么男孩子他回去没有死，那回去哪儿去了？你知道，</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5967,6 +7995,16 @@
           <t>个体发言、小组学习</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>那还为什么知道灰雀没有死呢？你来猜猜，你们好，那我们让你同桌来帮一帮</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>，好，那同桌帮一帮，了哦，龟是被小男孩可能带回家了。所以第二所以列宁问的时候，小男孩才这么肯定的说他说了什么呀？</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5994,6 +8032,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>老师想问那小男孩，他是喜欢回去，还是讨厌回去啊？他为什么呀？</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>是呀，那同学们</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6021,6 +8069,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>为什么喜亚还要抓那个男生，，</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6048,6 +8106,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>是呀，他也是列宁一样，非常的喜欢我们的灰雀。</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6075,6 +8143,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>并且完成我们的学习单</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>。现在开始，去考虑，麻烦a为什么？法是什么？他没有怀疑，因为我个男孩抓，没有怀疑没有，</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6102,6 +8180,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>同学们写的时候写关键词就可以</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6129,6 +8217,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>你唱一个</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>没位置加什么，，</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6156,6 +8254,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>回去，不？这个火柴人，对，他就是，</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6183,6 +8291,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>见我没想到你，鸡贝子，可以，</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6210,6 +8328,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>谢你的小孩母亲，还有电影，安心全，哦，我知道了不？我没看见，</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6237,6 +8365,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>告诉一报名，他们一个，</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6264,6 +8402,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>我爱你。哎呀，</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6291,6 +8439,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>兑飞起来一份七最喜欢的，是哪个？哪里？看进口柴，</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6318,6 +8476,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>六成，我要看啥那个，有，</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6345,6 +8513,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>那你们的主角是谁？你们要写清楚呀，谁慌张，谁的心里在害怕，你要把主角一起写清楚。</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>昨天发，看，一下，我拍的是真，是啊，老师看到有些同学说，有点惭愧，还有非常慌张，</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6372,6 +8550,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>张佳同学说影很伤心，因为灰雀不见了，</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6399,6 +8587,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>然后你来给他们点一点赞</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>，你觉得他想法很好的，你就给他点一点赞，你要拉就拉你干啥，你要，这没有种没有没有没有没有可以，一直，好，下面老师看到这里有，</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6426,6 +8624,16 @@
           <t>多人展示</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>哪一个小组来分享分享你们小组的想法呢？</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>哪个小组？我们先是列宁的话，列宁的话，</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6453,6 +8661,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>那你来说一说当第一句</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>好，，孩子，你看见过一只深红色胸脯的，灰雀吗？你觉得他心里在想什么呢？</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6480,6 +8698,16 @@
           <t>小组学习</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>哪个小组来分享？</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>不想伤害到男孩的心。是呀，那么除了我们列宁的话，还有我们小男孩说那些话的心理，好，你们秒钟。</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6507,6 +8735,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>好，你来讲一讲</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>，</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6534,6 +8772,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>同学们，我们一起把这句话来读出来</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>对呀，大家注意到这里有一个符号是我们的省略省略号。那，我们读出它这种慌张，不知所措，没预备齐没，</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6561,6 +8809,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>对，我们是没我没看见，是不是？好，接下去，</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6588,6 +8846,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>那么其他的同学还有对小男孩的话，你觉得他还有什么其他心理吗？</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>明天就会把灰雀给带回来的。你想的和他们的小组是一样的吗？如果是的话，那让我们把掌声送给他们小组。</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6615,6 +8883,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>最后那位男生你来讲一讲</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>，嗯，然后但是第二天他回来了，所以，</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6642,6 +8920,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>同学们看一看这幅图片，猜一猜</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>不取道旁李，</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6669,6 +8957,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>谁来说一说你说吧</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>当然能做好充足的预习是最棒的啊。那课题，怎么解释呢？它是什么意思呢？，</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6696,6 +8994,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>请同学们认真看</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>接下来让我们一起来走进这篇文言文。学习文言文有一个，非常有用的方法就是在读之前呢，，你们也可以看你们自己的嗯平板</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6723,6 +9031,16 @@
           <t>个体展示</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>杨老师先给同学们做个示范</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>精进一点就是我们一定要把它读出文言的，味道。好，那，好不好？我读完以后，你给我打分按照这个标准哈，准，第25课，王戎不取，</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6750,6 +9068,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>王戎尝与诸小儿游，</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6777,6 +9105,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>你来说，你觉得我读的怎么样</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>好，我读完了，你有什么样的感受，你来给我做个老师评价一下吧。好，？好，先坐下来再想一想，</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6804,6 +9142,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>好了，接下来同学们，你们自由的出声朗读</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>你还可以提出我的不足。那我下一次就知道怎么样了。对，为了读的更好，我就可以进步了嘛，对不对？哎，好，你再来补充吧，感情谢谢，很有感情。我读出文言的味道，没有非常好，谢谢你的评价。。一会儿我找同学来读，</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6831,6 +9179,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>自由毒不是毒哈，</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6858,6 +9216,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>孩子们是自己读自己的，不要合成一个声音</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>好，老师打断一下，。好，开始，</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6885,6 +9253,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>谁来试一试？</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>先把第一句尝试着读一读。好，我专门找一个不爱举手的，你来读，来吧，大胆一点。</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6912,6 +9290,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>你来试试</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>小儿游读的怎么样？很好啊，那你怎么不举手呢？好，坐下来看来不举手的才是高手啊，。</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6939,6 +9327,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>你来试试，声音大一点</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>游停顿的很好，对不对？节奏掌得很好好坐下来，</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6966,6 +9364,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>第二句句子有点长，谁来试一试？</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>怎么样？棒棒的啊，我们鼓励他一下，真棒坐下来。好，</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6993,6 +9401,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>看道边李树，</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7020,6 +9438,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>你来说</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>我觉得他读的很好，你们觉得呢很好好在哪？，</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7047,6 +9475,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>咱们一起来试试</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>字音很准，嗯，节奏掌握的很好，对不对？但是啊这个地方要连读，看道边不要把它刻意的动开，，好不好？好，看道边，李树起，</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7074,6 +9512,16 @@
           <t>个体未知</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>好，哎，那个高高的小手，你来那个小女孩啊</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>胆子可以再再大点注意儿化音哈，树在道边很好坐下来。，</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7101,6 +9549,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>把这句话读一遍</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>，树在道边而多子且，</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7128,6 +9586,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>你来试试，课题，哎，</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>不错，有没有哪个同学敢挑战？把整一篇都读出来，声音又洪亮，感情又充沛。我们还找同学给他打分啊，</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7155,6 +9623,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>咱们按照刚刚的那个评价表，给他打个分行不行</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>请坐孩子们，，给他做一个评行评价好，</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7182,6 +9660,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>你就选一两颗星，就选二，啊，已经有12</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>，好，加快速度，然后还有七个同学加快速度，</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7209,6 +9697,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>周芷若，你来说说你为什么给他两颗心？</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>好，我们不等了时间关系多数同学，两颗星，还有九个同学给了一颗星，有五个同学给了，三颗星杨老师看一下啊，给了两颗星的周芷若在哪里？</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7236,6 +9734,16 @@
           <t>学生齐读</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>道边合读啊，连读看道边礼数</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>看道边礼数，，</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7263,6 +9771,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>你来说一说，你为什么给他三颗星？可以再想想，对不对啊？</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>38个同学已经选好了哦，观键38个同学给了他三颗星，我们看一看哪些同学，刘诗茹是哪一个同学？好，坐下来，你来说，</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7290,6 +9808,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>啊，那个女同学，你说</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>你可以跟杨老师说，杨老师，我再想一想，如果不会的话，给我点回应，我好，再想想坐下来啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7317,6 +9845,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>长是什么意思？</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7344,6 +9878,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>好，你来说吧，你帮帮他</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>咱们偷偷的告诉他一下什么意思，曾经曾经怎么样？，</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7371,6 +9915,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>你说联系上下文，那你能告诉他猪是什么意思吗？是什么意思？</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>哦，不知道谁谁知道你来说，小朋友小朋友好，那杨老师帮帮你这个诸啊，它就是众的意思，众就是多明白了吗？咱们生活里有一个词，你们有没有经常听到诸位诸位同学？</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7398,6 +9952,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>哎，那个小男孩，你说</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>，好，有没有人补充一下，很好为你的勇气点赞啊，敢于举手，其他还没有举过手的同学来试一试，谁来试一试？大胆的，好，表白呀，你来说一说说错，没关系，我们给你纠正这么多小老师呢，好，那坐下来再想想你来说，</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7425,6 +9989,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>李子此此是指代什么？四指什么？这些这些李子</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>树在道边就是道边的李树有结很多什么李子哎，</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7452,6 +10026,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>还有谁没发过言？</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>一定，怎么样苦，一定是苦底子，对不对？掌声送给他吧。好，能在课堂上踊跃发言的小朋友都是很勇敢的啊。好，我们再看最后一句话，取之信然，</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7479,6 +10063,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>好，抓紧时间哈。</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -7506,6 +10100,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>好，我现在看哈，有没有哪一个同学已经上传了啊？</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -7533,6 +10137,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>哦，我看到了，</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -7560,6 +10174,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>林俊源是哪一位同学？</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -7587,6 +10211,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>来来来你说吧</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>啊？周芷若的是你们选组啊，，</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7614,6 +10248,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>你来说吧</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>你觉得你自己的创意想法是什么？说不出来没关系，我们让同学来表扬你，你这个画画的怎么样？谁来表扬一下他？画的也挺不错的，，</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7641,6 +10285,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>颜色很饱满。唉，我觉得你们用词很啊很好下来，整体来说这个很俏皮很可爱，对不对啊？画出了我们这个七岁一个小男孩的这种童趣，对不对？非常好，坐下来啊，好时间关系，我们先暂时欣赏这两幅作品哈。</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7668,6 +10322,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>现在开始自言自语说哈，开始吧</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>重要的字词，我们刚刚一起分享了，你要把它讲清楚，省略掉的信息，你要把它讲完整，还有一些是需要我们想象补充的内容，你要把它讲明白。，</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7695,6 +10359,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>你来讲</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>好时间关系。好，谁来试一试啊？你最先举手，，</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7722,6 +10396,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>请坐端正倾听，是一种尊重。</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7749,6 +10433,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>哇，它还能加修饰语。哇，</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7776,6 +10470,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>那你说一说他什么么树在道道而多子，此必苦李呢？</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>当看见道旁有很多李子的时候，多数孩子怎么都会蜂拥而至，去抢去扑去摘，对不对？对，他却在怎么样在旁边怎么样？跟小伙伴形成了一种什么区别对比，对不对？哎，他的，</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7803,6 +10507,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>所以我们可以把它编成小话剧演一演可以吗？我们下去还可以再更好的练习朗读，对不对？啊？按照杨老师今天给的这个三个评价方式，也给小伙伴们做个小老师去评一评，行吗？行好，今天这节课我们就先上到这儿下课，</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7830,6 +10544,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>啦，啦，我要你，</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7857,6 +10581,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>今天中午休息的一情况况，这个时间没关系，</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7884,6 +10618,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>带的意思就是说你有一道题做两道题，也就是说问不出来，辣掉了，我上面的东西给你比较，每个报警写，</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7911,6 +10655,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>名单上没有同学把每到百，</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7938,6 +10692,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>又把10节目，先回复小，昨天是从哪几个小学生医院？别扭着干嘛？</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7965,6 +10729,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>这轮推行什么概括？还有意思吗？概括？如果是只有一一件事呢，我讲的是六要素啊，其中这个其中人物跟，结果是比较挺一样的啊，如果有多件事情的话，那我一般采用的是人物加动词，对一些小说故事情节是非常重要的。</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7992,6 +10766,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>再后来我在与他相遇之后的话，我发现风吹到我脸上也有些失意，说明我的这种原先消极的一股太慢，慢慢他所所给他改改变一掉，物质情节跟人物形象是有直接关联的。而在分析了这两个点之后，后面我们才可以。</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8019,6 +10803,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>我让我们同学去找，这篇文章当中，他做了一篇科幻小说，我让你去找他</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>后来我们还围绕作业本上的一道题展开分析什么？，我是马上处理处理之前，还让你找了一些具体的，要努力判断哪些句子是属于，</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8046,6 +10840,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>所以他这个内容就提前幻想出来，但是幻想又是有一定的科学依据的。比方说里面提到了很多数字，还有很多的一些科学的专用名词。所以科学的文字能够使得这篇小说的内容显得更加，</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8073,6 +10877,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>他是一位，我是正常，等于说他其实日常生活也是比较忙的，他都是靠靠，就是说白天工作到了晚上回家去之后的话，然后就是坐在书房里面每天进行，大概一个写一写都要去两天的话是两事，然后基层，</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8100,6 +10914,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>的一种比较常见的写法。这边，昨天让大家把伏笔跟铺垫进行了一下区别。电池，不是那个金争板块里的电池，下面是一个，伏笔跟书店的区别在于伏笔，它应属于暗示，</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8127,6 +10951,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>但铺垫不一样，铺垫是一定有因果关系的。我前面的那一句文字，如果为下的情节做铺垫，那就意味着前面那一个文字肯定是原因，这次原因一定会导致结果的，一个是属于暗示，一个是有直接观，有些不一样。</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8154,6 +10988,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>你必须要把整篇文章读完之后，站在全部的角度来讲，可能才会看出来这是属注意</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>。所以这这种刑法相来讲，可能，但在小说里面的话，伏必他出现的这个字母。我们小说里面有三样，一个是物事情节，一个是人物形象，还有一个是，</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8181,6 +11025,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>那我们同学你觉得结合昨天你的学习内容，我觉得这边我觉得在表达</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>主题是要基于对于人物形象的理解，而人物形象的分析又离开不及。，</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8208,6 +11062,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>他的一个人生经历或他的情感有比较大的变化的这个，肯定是有变化啊，大多数员工他的一种心情，或他的一种成长经历，或他的一个这个人的一种他是有变化，他不会担心。如果你发现这个人从到尾就没有变，那他应该就不是什么。</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8235,6 +11099,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>你的理由是什么？</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>如果你认为这篇小说主人公是我的话，首先</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8262,6 +11136,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>有原先觉得生活是灰色，后面他感受到生活的什么</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>而且我受到他的影响，我的改变是非常大的。具体表现在哪一方面改变？对，是对生活还不是对工作啊，是对生活的态度发生了非常大的改变。。</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8289,6 +11173,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>a昨天给了你们一个词原文的那个词，他感受到了来自生活的什么？失忆。下次记住，如果文章里面，碰到失意这个词，他的镜子就是没，</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8316,6 +11210,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>诗意这个词的近义词就是美好啊，他感受的生活的美好，那你在这边我觉得，</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8343,6 +11247,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>你现在还在做事情下构建精神体系，影响社府。我正是因为受到了姑娘和她的影响，所以我由原先那一个对于生活消极的消沉的一种态度，转向了能感受到生活的美好表达什么主题？</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8370,6 +11284,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>他为什么作者为什么很刻意的去通过写？</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>我受到小姑娘的影响，变得开始去感，受到生活的美好。可见，作者想要向我们传达这，</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8397,6 +11321,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>他通过我对于生活态的一个转变表达什么？</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>主？</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8424,6 +11358,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>你不需要把它想的太，所有的科幻小说，它最终主题都会指向现实生，而且无一例外，要么是关注到人们就现现代社会，人们对于生活的一种态度，要么去关注到现代社会中，人性还记得什么叫人性吗？</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8451,6 +11395,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>实生活中的一个人类的生存状态。还有一什么叫人性？就人的天性？人生下来，你的天性里面有些东西是好的，有些东西坏的，比方说人的天性里面好的一些有什么？善良，</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -8478,6 +11432,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>至少要分析两点</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>，但是考虑到他这道题，每条横线给你那么长的偏幅，这边至少一定要打出三个点，沉着，体贴尽责，勇敢乐观。啊，他这边提到了一个词名叫英雄。</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -8505,6 +11469,16 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>你觉得什么叫英雄？</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>我们在那克国伟大的类剧里里面也接触了这个概念啊，他说他是他们是一群英雄，那整个这两篇我就这样来排，就隔一下那一个伟大悲剧，随便戴着他的眼睛。我们因为</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -8532,6 +11506,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>如果让你给一组下个礼的，一种废情在没有，补味还有呢？</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -8559,6 +11543,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>整个人历史当中，我的生命就会被无限的放大，被无限的，你已经融人类整整个，这个历史上被人们属于越来越。那反过来讲，你如果只是为自己一个人而活的话，那你这个70~80年完之后，对，报响在你是个，不畏有人精神还有吗？</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -8586,6 +11580,12 @@
           <t>个体发言</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>你把这两个人物，一个是他一个是这一起四个字，他们身上共同的组织者在一起啊什么的，有责任心，那就有担当是吧？</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -8613,6 +11613,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>就是，坚强，经常也可以今定要还有没有。</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -8640,6 +11650,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>而且们在这一项事业上，我如果死了，结果一点成绩都没做出来的话，没有人会打，这能不能理解？你肯定是干嘛？虽然是牺牲的，但是你一定会有一定是一些款成绩有些贡献，这是叫艺术的啊，所以，</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -8667,6 +11687,16 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>包括刚刚同学提到的说他是为人类的事业，也可以这么理解。英雄他往往是具有一种心怀天下、心怀苍生的一种胸怀。他的胸怀是为人类，</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -8694,6 +11724,16 @@
           <t>独立练习</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>快速看一下这边那个读书卡片，了解一下刘子欣</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>科幻小说的幻想是基于科学。所以两者有可能，一个是属于漫无边际的幻象，一个是有据。然后，他最有名的是他的三部六乐条篇小说一共有33三叫做三体。</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -8719,6 +11759,16 @@
       <c r="E307" t="inlineStr">
         <is>
           <t>其他</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>放大器，因为原先这个店业铺就单一的去去向群众进，结果把太阳作为放大器的话，能够通过太阳辐射，将那个电波的那一个墙增大，结果意外的将一个电波发射向了，多少光年以外啊，像是说10几光年以外很多多少光年，人大事科，</t>
         </is>
       </c>
     </row>
